--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b187250c9f36ea2/Desktop/Abhijit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74EFA0A6-8602-4C72-8F40-3131C990559A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43728647-E090-45A7-B2D5-22104B751D18}"/>
   </bookViews>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EAE41-FEE4-4915-98E7-EF53BBAB89F2}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +435,11 @@
       </c>
       <c r="B2" s="1"/>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b187250c9f36ea2/Desktop/AbhijitRepo/gitExcel/gitExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE93D0D-4B2E-4A63-A792-44C6B84D2FE2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FD08B7-9C58-4803-8C4A-EA9422E22ED0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43728647-E090-45A7-B2D5-22104B751D18}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ARD</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -92,10 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EAE41-FEE4-4915-98E7-EF53BBAB89F2}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,10 +422,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -439,6 +438,47 @@
       <c r="A3" s="2">
         <v>45109</v>
       </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.58194444444444449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b187250c9f36ea2/Desktop/AbhijitRepo/gitExcel/gitExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b187250c9f36ea2/Desktop/AbhijitRepo/gitExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FD08B7-9C58-4803-8C4A-EA9422E22ED0}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D4A151D4-7531-44A4-9B54-FEA3C1CACA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C563309E-430C-402F-BEB7-B8C84436C917}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43728647-E090-45A7-B2D5-22104B751D18}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,12 +449,20 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.62361111111111101</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.66527777777777797</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
